--- a/Document/My Map bin檔格式.xlsx
+++ b/Document/My Map bin檔格式.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52d08203c10d1a59/Document/5AT/GPS Web/GPS 自走車軟體控制介面/Document/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/52d08203c10d1a59/Document/5AT/GPS Web/GPS Track Builder/Document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{53FF2A4F-A547-4870-BB1F-3279AC4FFEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{55F34890-675C-4938-8B58-7420C480ADFA}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{53FF2A4F-A547-4870-BB1F-3279AC4FFEFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D4095DF6-A242-486F-9E42-C59364252206}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2D06D83-88E1-4438-A248-2B7D5135ECF9}"/>
   </bookViews>
@@ -218,25 +218,25 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -564,7 +564,7 @@
   <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -575,12 +575,12 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="6">
+      <c r="B1" s="12">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
       <c r="F1" s="1">
         <v>1</v>
       </c>
@@ -631,19 +631,19 @@
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
       <c r="F2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="1"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -661,39 +661,39 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="12" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="11" t="s">
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="10" t="s">
+      <c r="K3" s="9"/>
+      <c r="L3" s="9"/>
+      <c r="M3" s="9"/>
+      <c r="N3" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="10"/>
+      <c r="O3" s="8"/>
       <c r="P3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="9"/>
-      <c r="S3" s="8" t="s">
+      <c r="R3" s="7"/>
+      <c r="S3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="T3" s="8"/>
+      <c r="T3" s="6"/>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
@@ -800,15 +800,16 @@
       <c r="T7" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="G2:H2"/>
     <mergeCell ref="S3:T3"/>
     <mergeCell ref="Q3:R3"/>
     <mergeCell ref="N3:O3"/>
     <mergeCell ref="J3:M3"/>
     <mergeCell ref="F3:I3"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
